--- a/loaded_influencer_data/vivipham03022000/vivipham03022000_video.xlsx
+++ b/loaded_influencer_data/vivipham03022000/vivipham03022000_video.xlsx
@@ -506,324 +506,326 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@vivipham03022000/video/7461662303658741013</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>237500</v>
+      </c>
+      <c r="C2" t="n">
+        <v>35200</v>
+      </c>
+      <c r="D2" t="n">
+        <v>119</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1216</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Tự hào vì là con dân Đất Việt - mãi yêu người Việt Nam #VinFastso1 #VinFast #VinFastVN #So1VietNam</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>14.87115789473684</v>
+      </c>
+      <c r="I2" t="n">
+        <v>14.82105263157895</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.05010526315789474</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>고정됨</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7267959114985229573</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>2100000</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>7767</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>223</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>155</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Da body sáng mịn nhờ một bước đơn giản trong routine hằng ngày
 #Lifebuoy #LifebuoyVietnam</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="H3" t="n">
         <v>0.3804761904761905</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I3" t="n">
         <v>0.3698571428571429</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.01061904761904762</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L3" t="n">
         <v>0.007380952380952381</v>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>고정됨</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023-8-17</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7153595253818166554</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>6500000</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>21100</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>192</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>74</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Mùa thu Hà Nội còn gì tuyệt vời hơn là đi hẹn hò ăn những món ngon với zai đẹp quen từ Tinder #tindervn</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="H4" t="n">
         <v>0.3275692307692308</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I4" t="n">
         <v>0.3246153846153846</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.002953846153846154</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L4" t="n">
         <v>0.001138461538461538</v>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>고정됨</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022-10-12</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7486824694469971206</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>187</v>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="B5" t="n">
+        <v>1053</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4046</v>
+      </c>
+      <c r="D5" t="n">
+        <v>57</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>124</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>Đẹp khoẻ từ bên trong chỉ với vài phút mỗi ngày #DrDietSunshineGlutathion10X #Glutation #skincare</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>22.45989304812834</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13.90374331550802</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8.55614973262032</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.53475935828877</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="H5" t="n">
+        <v>389.6486229819564</v>
+      </c>
+      <c r="I5" t="n">
+        <v>384.2355175688509</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.413105413105413</v>
+      </c>
+      <c r="L5" t="n">
+        <v>11.77587844254511</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7485737712830467335</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>109800</v>
-      </c>
-      <c r="C5" t="n">
-        <v>892</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="B6" t="n">
+        <v>109900</v>
+      </c>
+      <c r="C6" t="n">
+        <v>54</v>
+      </c>
+      <c r="D6" t="n">
+        <v>111</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>171</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Làn da mịn màng cùng hương thơm quyến rủ giúp phái nữ tự tin hơn nè #linhessence</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1501364877161055</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.04913557779799818</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1010009099181074</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.1555959963603276</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@vivipham03022000/video/7485729278638771474</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>219700</v>
+      </c>
+      <c r="C7" t="n">
+        <v>54</v>
+      </c>
+      <c r="D7" t="n">
+        <v>111</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>171</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Làn da mịn màng cùng hương thơm quyến rủ giúp phái nữ tự tin hơn nè #linhessence</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.07510241238051889</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.02457897132453345</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.05052344105598543</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.07783340919435594</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@vivipham03022000/video/7485288145253190933</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>41600</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2439</v>
+      </c>
+      <c r="D8" t="n">
         <v>109</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>169</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Làn da mịn màng cùng hương thơm quyến rủ giúp phái nữ tự tin hơn nè #linhessence</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>0.9116575591985427</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.8123861566484517</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.09927140255009109</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.1539162112932605</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2025-03-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@vivipham03022000/video/7485729278638771474</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>219600</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2438</v>
-      </c>
-      <c r="D6" t="n">
-        <v>105</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>108</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Làn da mịn màng cùng hương thơm quyến rủ giúp phái nữ tự tin hơn nè #linhessence</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1.158014571948998</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.110200364298725</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.04781420765027322</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.04918032786885246</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2025-03-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@vivipham03022000/video/7485288145253190933</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>41600</v>
-      </c>
-      <c r="C7" t="n">
-        <v>436</v>
-      </c>
-      <c r="D7" t="n">
-        <v>15</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Ra rạpp nhanh thôi #trutaky #trutakykhoinguyenhacam #leuheu</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1.084134615384615</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.048076923076923</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.03605769230769231</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.004807692307692308</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@vivipham03022000/video/7484634380367908116</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>326600</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3296</v>
-      </c>
-      <c r="D8" t="n">
-        <v>67</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -833,491 +835,491 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>Bộ combo song kiếm hợp bích Mediteen #mediteen #daugoi #chamsoctoc</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6.125</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.862980769230769</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.2620192307692308</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.2620192307692308</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@vivipham03022000/video/7484634380367908116</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>326600</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2453</v>
+      </c>
+      <c r="D9" t="n">
+        <v>53</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Ra rạpp nhanh thôi #trutaky #trutakykhoinguyenhacam #leuheu</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.7672994488671158</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.751071647274954</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.01622780159216167</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.001224739742804654</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@vivipham03022000/video/7482042486379121937</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>215900</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3296</v>
+      </c>
+      <c r="D10" t="n">
+        <v>116</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>110</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Chốt đơn online được em kem chống nắng này chân ái thiệt chứ #Cetaphil #Kemchongnang #nangtone</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>1.029699938763013</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.009185548071035</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.02051439069197795</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.03337415799142682</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2025-03-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@vivipham03022000/video/7482042486379121937</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>215900</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5877</v>
-      </c>
-      <c r="D9" t="n">
-        <v>136</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>217</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Trấn động 😍😍😍 #bodymist #xitthombodymist #Whisis #Bodymistwhisis</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2.785085687818435</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.722093561834182</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.06299212598425197</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.1005094951366373</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2025-03-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>1.580361278369615</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.526632700324224</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.05372857804539138</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.05094951366373321</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7478336929675611409</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
         <v>250100</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" t="n">
         <v>4445</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>83</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>48</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Gợi ý cho mng món quà 8/3 ý nghĩa #unove #duongtoc #quatang #oliveyoung #halago</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>1.81047580967613</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>1.777289084366253</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.03318672530987605</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L11" t="n">
         <v>0.01919232307077169</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7477211512881401108</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>291200</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>4108</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>119</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>119</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Đôi môi căng mọng mà không cần filter #huyenhuho #lavia #sonladautam</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>1.45157967032967</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>1.410714285714286</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.04086538461538462</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L12" t="n">
         <v>0.04086538461538462</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7477210921761279239</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B13" t="n">
         <v>181500</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C13" t="n">
         <v>3832</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D13" t="n">
         <v>173</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>24</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Combo gội xã giúp máu tóc của bạn tuyệt vời hơn mỗi ngày</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>2.206611570247934</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I13" t="n">
         <v>2.111294765840221</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.09531680440771349</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L13" t="n">
         <v>0.01322314049586777</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7476444785402793234</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B14" t="n">
         <v>103200</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C14" t="n">
         <v>2447</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D14" t="n">
         <v>33</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>112</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Trộm vía đi đâu cũng được khen tóc đẹp #vivelab #Ampoule</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>2.403100775193798</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I14" t="n">
         <v>2.371124031007752</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.03197674418604651</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L14" t="n">
         <v>0.1085271317829457</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7475359971975105812</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B15" t="n">
         <v>65000</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C15" t="n">
         <v>2133</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D15" t="n">
         <v>57</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>177</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Kem lười của mấy bà thích nhanh gọn lẹ nè #Geoskincare #kemlot</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>3.36923076923077</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>3.281538461538462</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.08769230769230769</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L15" t="n">
         <v>0.2723076923076923</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7474245862206524693</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B16" t="n">
         <v>154400</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C16" t="n">
         <v>3434</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D16" t="n">
         <v>68</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>105</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Mách nhỏ cho những bạn nào đang lo lắng về sẹo nè #rejuvaskinvietnam #scaresthetique #kemtriseo #rejuvasil</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>2.268134715025907</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>2.224093264248705</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.04404145077720208</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L16" t="n">
         <v>0.06800518134715026</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7472306951548898581</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B17" t="n">
         <v>145400</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C17" t="n">
         <v>3030</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D17" t="n">
         <v>35</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>106</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Mê mẩn làn da này #xitkhoang #tinhdauthom #hideep #wonsam #hanquoc #chamsocda #halago</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>2.107977991746905</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I17" t="n">
         <v>2.083906464924346</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.02407152682255846</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L17" t="n">
         <v>0.07290233837689133</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-02-17</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7471654315497721095</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B18" t="n">
         <v>100100</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3560</v>
-      </c>
-      <c r="D17" t="n">
-        <v>36</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>108</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Da đẹp quẩy tung hè</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3.592407592407593</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.556443556443557</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.03596403596403597</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.1078921078921079</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>2025-02-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@vivipham03022000/video/7471565582681296136</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>148200</v>
       </c>
       <c r="C18" t="n">
         <v>3560</v>
@@ -1337,532 +1339,532 @@
         </is>
       </c>
       <c r="H18" t="n">
+        <v>3.592407592407593</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.556443556443557</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.03596403596403597</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.1078921078921079</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@vivipham03022000/video/7471565582681296136</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>148200</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3560</v>
+      </c>
+      <c r="D19" t="n">
+        <v>36</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>108</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Da đẹp quẩy tung hè</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>2.426450742240216</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I19" t="n">
         <v>2.402159244264507</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.0242914979757085</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L19" t="n">
         <v>0.07287449392712551</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7471319104616434945</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B20" t="n">
         <v>185900</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C20" t="n">
         <v>3128</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D20" t="n">
         <v>30</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>104</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Ai bảo chăm tóc dài là khó #nguyenxuanchackhoe #daugoiduoclieunguyenxuan @Dầu gội Nguyên Xuân</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>1.698762775685853</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I20" t="n">
         <v>1.682625067240452</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.01613770844540075</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L20" t="n">
         <v>0.05594405594405594</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7469058451960778005</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B21" t="n">
         <v>211300</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C21" t="n">
         <v>1233</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D21" t="n">
         <v>184</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>1</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Mượn lời tỏ tình cùng @Closeupvietnam #HatLoiThomMat #MuonLoiThomMat t</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H21" t="n">
         <v>0.6706105063890203</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I21" t="n">
         <v>0.583530525319451</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.08707998106956934</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L21" t="n">
         <v>0.0004732607666824421</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7468267543199878421</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>120200</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>4465</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D22" t="n">
         <v>49</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>133</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Chăm da body đơn giản tại gia #littledreamgarden</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>3.75540765391015</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I22" t="n">
         <v>3.714642262895175</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.04076539101497505</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L22" t="n">
         <v>0.110648918469218</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-02-08</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7467887541199441173</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B23" t="n">
         <v>102100</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C23" t="n">
         <v>3561</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D23" t="n">
         <v>99</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>103</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Mê mẩn với làn da này quanh năm #skincare #skintok #skincareroutine #reviewlamdep
 #goclamdep</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H23" t="n">
         <v>3.584720861900098</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I23" t="n">
         <v>3.487757100881489</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.09696376101860921</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L23" t="n">
         <v>0.1008814887365328</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-02-06</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7466153568454642960</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B24" t="n">
         <v>92200</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C24" t="n">
         <v>2265</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D24" t="n">
         <v>131</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>5</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Saoooo mấy keooo khó tính quá hà #botubaothu</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H24" t="n">
         <v>2.598698481561822</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I24" t="n">
         <v>2.456616052060738</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.1420824295010846</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L24" t="n">
         <v>0.005422993492407809</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-02-05</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7465666783987469585</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B25" t="n">
         <v>80700</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C25" t="n">
         <v>3973</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D25" t="n">
         <v>50</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>237</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Mê bài này lắm #kocchinokento #mouiiyo #terumerudance</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H25" t="n">
         <v>4.985130111524164</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I25" t="n">
         <v>4.923172242874845</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.06195786864931847</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L25" t="n">
         <v>0.2936802973977695</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-02-01</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7463017966104366344</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B26" t="n">
         <v>102800</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C26" t="n">
         <v>2753</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D26" t="n">
         <v>27</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>142</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Xin chàoooo #sincere #rain</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H26" t="n">
         <v>2.704280155642024</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I26" t="n">
         <v>2.678015564202335</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.02626459143968871</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L26" t="n">
         <v>0.1381322957198443</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-01-30</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7462643138943782164</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B27" t="n">
         <v>220000</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C27" t="n">
         <v>2023</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D27" t="n">
         <v>23</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>156</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Tết này nách thơm lại còn trắng mịn cùng lăn khử mùi Dove #Doveserum #Dovenganmui #catcanhkhongcatminh</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H27" t="n">
         <v>0.9299999999999999</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I27" t="n">
         <v>0.9195454545454544</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.01045454545454545</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L27" t="n">
         <v>0.07090909090909091</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-01-23</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7461901711842610452</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B28" t="n">
         <v>95300</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C28" t="n">
         <v>1842</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D28" t="n">
         <v>62</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>16</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Da mấy bà sẽ sáng bóng ngay nếu làm theo tui á! #Bôngvi #beautytok #goclamdep #skincare #tetgrn2025</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H28" t="n">
         <v>1.997901364113327</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I28" t="n">
         <v>1.932843651626443</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.06505771248688352</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L28" t="n">
         <v>0.0167890870933893</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-01-22</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@vivipham03022000/video/7461662303658741013</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>237400</v>
-      </c>
-      <c r="C28" t="n">
-        <v>3026</v>
-      </c>
-      <c r="D28" t="n">
-        <v>13</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>136</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Hihi</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>1.280117944397641</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1.274641954507161</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.005475989890480202</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.05728727885425442</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>2025-01-20</t>
-        </is>
-      </c>
-    </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7460140697627249940</t>
         </is>
@@ -1912,7 +1914,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7460134140516584712</t>
         </is>
@@ -1962,7 +1964,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7459776273389260033</t>
         </is>
@@ -2012,7 +2014,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7459728993693043985</t>
         </is>
@@ -2062,7 +2064,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7458300225065651473</t>
         </is>
@@ -2112,7 +2114,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7458217447527648533</t>
         </is>
@@ -2163,7 +2165,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7456727336344505601</t>
         </is>
@@ -2213,7 +2215,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7456068248598088981</t>
         </is>
@@ -2263,7 +2265,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7454145360433253653</t>
         </is>
@@ -2313,7 +2315,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7453081842221206791</t>
         </is>
@@ -2363,7 +2365,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7452334022698568980</t>
         </is>
@@ -2413,7 +2415,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7451893128098860309</t>
         </is>
@@ -2463,7 +2465,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7451583752930725141</t>
         </is>
@@ -2513,7 +2515,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7450835873035193607</t>
         </is>
@@ -2563,7 +2565,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7450127302836374785</t>
         </is>
@@ -2614,7 +2616,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7449744696089333013</t>
         </is>
@@ -2665,7 +2667,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7449012981247003912</t>
         </is>
@@ -2717,7 +2719,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7448239296131140885</t>
         </is>
@@ -2767,7 +2769,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7447169408067325201</t>
         </is>
@@ -2817,7 +2819,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7442644645076569361</t>
         </is>
@@ -2867,7 +2869,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7441179465662663952</t>
         </is>
@@ -2918,7 +2920,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@vivipham03022000/video/7438621670740446482</t>
         </is>
